--- a/Field Materials List 2020.xlsx
+++ b/Field Materials List 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eddie/Desktop/field build handouts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EABA66-48F2-AA4C-A937-B493190AE0F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9732E4DA-10A2-0E43-9295-5C031A88F4BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{8FFA189D-700E-6041-9A08-683AFE32B33F}"/>
   </bookViews>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80E9493-B755-5B46-8F14-371992F207FB}">
   <dimension ref="B2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -935,14 +935,14 @@
         <v>250</v>
       </c>
       <c r="D25" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E25" s="9">
         <v>8.24</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" ref="F25:F37" si="2">D25*E25</f>
-        <v>16.48</v>
+        <v>82.4</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>17</v>
@@ -956,14 +956,14 @@
         <v>98</v>
       </c>
       <c r="D26" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="12">
         <v>3.98</v>
       </c>
       <c r="F26" s="12">
         <f t="shared" si="2"/>
-        <v>7.96</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>19</v>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="F40" s="18">
         <f>SUM(F10:F37)</f>
-        <v>777.49999999999989</v>
+        <v>855.35999999999979</v>
       </c>
     </row>
   </sheetData>
